--- a/Code_V2/Evol_Strat_Mean.xlsx
+++ b/Code_V2/Evol_Strat_Mean.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Ite</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>CA_Market_Temoin</t>
+  </si>
+  <si>
+    <t>Diff_CA</t>
   </si>
 </sst>
 </file>
@@ -419,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,3166 +477,3358 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D2">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E2">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20014</v>
+        <v>17403</v>
       </c>
       <c r="H2">
-        <v>1710976499018991</v>
+        <v>270450766926343.1</v>
       </c>
       <c r="I2">
-        <v>20014</v>
+        <v>17403</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16171</v>
+        <v>16955</v>
       </c>
       <c r="L2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M2">
-        <v>16171</v>
+        <v>16955</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>35226.68506870016</v>
+        <v>41679.11055359768</v>
       </c>
       <c r="P2">
-        <v>34755.80067264124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>36960.6796342856</v>
+      </c>
+      <c r="Q2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C3">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D3">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E3">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3">
-        <v>20418</v>
+        <v>15250</v>
       </c>
       <c r="H3">
-        <v>1879061416257961</v>
+        <v>4980701829695.093</v>
       </c>
       <c r="I3">
-        <v>19510</v>
+        <v>14318</v>
       </c>
       <c r="J3">
-        <v>908</v>
+        <v>932</v>
       </c>
       <c r="K3">
-        <v>17351</v>
+        <v>15568</v>
       </c>
       <c r="L3">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M3">
-        <v>17009</v>
+        <v>15106</v>
       </c>
       <c r="N3">
-        <v>342</v>
+        <v>462</v>
       </c>
       <c r="O3">
-        <v>34389.81072069243</v>
+        <v>39077.81830906322</v>
       </c>
       <c r="P3">
-        <v>39036.04103008108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>37623.00874085004</v>
+      </c>
+      <c r="Q3">
+        <v>-318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D4">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E4">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>19297</v>
+        <v>18418</v>
       </c>
       <c r="H4">
-        <v>1710354405082074</v>
+        <v>31516105228426.78</v>
       </c>
       <c r="I4">
-        <v>18389</v>
+        <v>17650</v>
       </c>
       <c r="J4">
-        <v>908</v>
+        <v>768</v>
       </c>
       <c r="K4">
-        <v>18085</v>
+        <v>18983</v>
       </c>
       <c r="L4">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M4">
-        <v>17140</v>
+        <v>18401</v>
       </c>
       <c r="N4">
-        <v>945</v>
+        <v>582</v>
       </c>
       <c r="O4">
-        <v>34389.81072069243</v>
+        <v>39566.52778977975</v>
       </c>
       <c r="P4">
-        <v>37109.97806395925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>35874.7286952736</v>
+      </c>
+      <c r="Q4">
+        <v>-565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D5">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E5">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
-        <v>21894</v>
+        <v>17672</v>
       </c>
       <c r="H5">
-        <v>1879319706394788</v>
+        <v>632945698099758</v>
       </c>
       <c r="I5">
-        <v>21120</v>
+        <v>16763</v>
       </c>
       <c r="J5">
-        <v>774</v>
+        <v>909</v>
       </c>
       <c r="K5">
-        <v>15512</v>
+        <v>16343</v>
       </c>
       <c r="L5">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="M5">
-        <v>14442</v>
+        <v>15581</v>
       </c>
       <c r="N5">
-        <v>1070</v>
+        <v>762</v>
       </c>
       <c r="O5">
-        <v>35226.68506870016</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P5">
-        <v>37152.84117250644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>36675.75531604329</v>
+      </c>
+      <c r="Q5">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D6">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E6">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>22328</v>
+        <v>18125</v>
       </c>
       <c r="H6">
-        <v>1713204225032700</v>
+        <v>11593111883366.45</v>
       </c>
       <c r="I6">
-        <v>20442</v>
+        <v>16681</v>
       </c>
       <c r="J6">
-        <v>1886</v>
+        <v>1444</v>
       </c>
       <c r="K6">
-        <v>18904</v>
+        <v>15597</v>
       </c>
       <c r="L6">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="M6">
-        <v>17157</v>
+        <v>14344</v>
       </c>
       <c r="N6">
-        <v>1747</v>
+        <v>1253</v>
       </c>
       <c r="O6">
-        <v>35226.68506870016</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P6">
-        <v>36260.03652890335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>37088.27674145606</v>
+      </c>
+      <c r="Q6">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C7">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E7">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>23593</v>
+        <v>19136</v>
       </c>
       <c r="H7">
-        <v>1750162335995508</v>
+        <v>232847945793093.3</v>
       </c>
       <c r="I7">
-        <v>22045</v>
+        <v>17505</v>
       </c>
       <c r="J7">
-        <v>1548</v>
+        <v>1631</v>
       </c>
       <c r="K7">
-        <v>16903</v>
+        <v>18180</v>
       </c>
       <c r="L7">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="M7">
-        <v>15678</v>
+        <v>16384</v>
       </c>
       <c r="N7">
-        <v>1225</v>
+        <v>1796</v>
       </c>
       <c r="O7">
-        <v>35226.68506870016</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P7">
-        <v>36004.80694461046</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>37113.52886574537</v>
+      </c>
+      <c r="Q7">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D8">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E8">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>22712</v>
+        <v>16531</v>
       </c>
       <c r="H8">
-        <v>1893730557998871</v>
+        <v>31513091881725.98</v>
       </c>
       <c r="I8">
-        <v>20508</v>
+        <v>15274</v>
       </c>
       <c r="J8">
-        <v>2204</v>
+        <v>1257</v>
       </c>
       <c r="K8">
-        <v>19347</v>
+        <v>15596</v>
       </c>
       <c r="L8">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="M8">
-        <v>17417</v>
+        <v>14858</v>
       </c>
       <c r="N8">
-        <v>1930</v>
+        <v>738</v>
       </c>
       <c r="O8">
-        <v>35226.68506870016</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P8">
-        <v>35924.06591102063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>36075.99338035961</v>
+      </c>
+      <c r="Q8">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D9">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E9">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>20562</v>
+        <v>18162</v>
       </c>
       <c r="H9">
-        <v>1716376452937088</v>
+        <v>11593027487505.2</v>
       </c>
       <c r="I9">
-        <v>17903</v>
+        <v>16157</v>
       </c>
       <c r="J9">
-        <v>2659</v>
+        <v>2005</v>
       </c>
       <c r="K9">
-        <v>18138</v>
+        <v>18520</v>
       </c>
       <c r="L9">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="M9">
-        <v>16050</v>
+        <v>16243</v>
       </c>
       <c r="N9">
-        <v>2088</v>
+        <v>2277</v>
       </c>
       <c r="O9">
-        <v>34389.81072069243</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P9">
-        <v>36441.64691038836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>37756.91900744035</v>
+      </c>
+      <c r="Q9">
+        <v>-358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C10">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D10">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E10">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>23508</v>
+        <v>18966</v>
       </c>
       <c r="H10">
-        <v>1732895594888766</v>
+        <v>85664426888624.69</v>
       </c>
       <c r="I10">
-        <v>20771</v>
+        <v>16426</v>
       </c>
       <c r="J10">
-        <v>2737</v>
+        <v>2540</v>
       </c>
       <c r="K10">
-        <v>18053</v>
+        <v>16411</v>
       </c>
       <c r="L10">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M10">
-        <v>16568</v>
+        <v>14324</v>
       </c>
       <c r="N10">
-        <v>1485</v>
+        <v>2087</v>
       </c>
       <c r="O10">
-        <v>35226.68506870016</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P10">
-        <v>35676.86143041328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>38876.07116679693</v>
+      </c>
+      <c r="Q10">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="C11">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D11">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E11">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>20880</v>
+        <v>19908</v>
       </c>
       <c r="H11">
-        <v>1718536206004605</v>
+        <v>632946502379992.9</v>
       </c>
       <c r="I11">
-        <v>18138</v>
+        <v>17207</v>
       </c>
       <c r="J11">
-        <v>2742</v>
+        <v>2701</v>
       </c>
       <c r="K11">
-        <v>15928</v>
+        <v>19072</v>
       </c>
       <c r="L11">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="M11">
-        <v>14800</v>
+        <v>17023</v>
       </c>
       <c r="N11">
-        <v>1128</v>
+        <v>2049</v>
       </c>
       <c r="O11">
-        <v>34389.81072069243</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P11">
-        <v>38590.2654091919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>37179.58696555277</v>
+      </c>
+      <c r="Q11">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C12">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E12">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>24073</v>
+        <v>17200</v>
       </c>
       <c r="H12">
-        <v>1718284623327155</v>
+        <v>4185447137793.598</v>
       </c>
       <c r="I12">
-        <v>21186</v>
+        <v>14463</v>
       </c>
       <c r="J12">
-        <v>2887</v>
+        <v>2737</v>
       </c>
       <c r="K12">
-        <v>16876</v>
+        <v>17252</v>
       </c>
       <c r="L12">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="M12">
-        <v>15036</v>
+        <v>14810</v>
       </c>
       <c r="N12">
-        <v>1840</v>
+        <v>2442</v>
       </c>
       <c r="O12">
-        <v>35226.68506870016</v>
+        <v>39862.18384239942</v>
       </c>
       <c r="P12">
-        <v>37281.48742299556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>36235.29408823403</v>
+      </c>
+      <c r="Q12">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D13">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E13">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G13">
-        <v>22004</v>
+        <v>19257</v>
       </c>
       <c r="H13">
-        <v>1711001883875651</v>
+        <v>4264864047850.498</v>
       </c>
       <c r="I13">
-        <v>18304</v>
+        <v>16504</v>
       </c>
       <c r="J13">
-        <v>3700</v>
+        <v>2753</v>
       </c>
       <c r="K13">
-        <v>18371</v>
+        <v>18601</v>
       </c>
       <c r="L13">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="M13">
-        <v>16002</v>
+        <v>15446</v>
       </c>
       <c r="N13">
-        <v>2369</v>
+        <v>3155</v>
       </c>
       <c r="O13">
-        <v>35226.68506870016</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P13">
-        <v>36466.12435326904</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>38323.76564510898</v>
+      </c>
+      <c r="Q13">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D14">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E14">
+        <v>81</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>17752</v>
+      </c>
+      <c r="H14">
+        <v>1569225809853.727</v>
+      </c>
+      <c r="I14">
+        <v>14164</v>
+      </c>
+      <c r="J14">
+        <v>3588</v>
+      </c>
+      <c r="K14">
+        <v>18637</v>
+      </c>
+      <c r="L14">
         <v>142</v>
       </c>
-      <c r="F14">
-        <v>24</v>
-      </c>
-      <c r="G14">
-        <v>22673</v>
-      </c>
-      <c r="H14">
-        <v>1732794883633780</v>
-      </c>
-      <c r="I14">
-        <v>19002</v>
-      </c>
-      <c r="J14">
-        <v>3671</v>
-      </c>
-      <c r="K14">
-        <v>17064</v>
-      </c>
-      <c r="L14">
-        <v>157</v>
-      </c>
       <c r="M14">
-        <v>14028</v>
+        <v>15114</v>
       </c>
       <c r="N14">
-        <v>3036</v>
+        <v>3523</v>
       </c>
       <c r="O14">
-        <v>35226.68506870016</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P14">
-        <v>34688.2305498899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>36772.91203784382</v>
+      </c>
+      <c r="Q14">
+        <v>-885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D15">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E15">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>21765</v>
+        <v>19251</v>
       </c>
       <c r="H15">
-        <v>1733467544313701</v>
+        <v>85660187862993.41</v>
       </c>
       <c r="I15">
-        <v>17843</v>
+        <v>15802</v>
       </c>
       <c r="J15">
-        <v>3922</v>
+        <v>3449</v>
       </c>
       <c r="K15">
-        <v>17708</v>
+        <v>19113</v>
       </c>
       <c r="L15">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="M15">
-        <v>15065</v>
+        <v>15481</v>
       </c>
       <c r="N15">
-        <v>2643</v>
+        <v>3632</v>
       </c>
       <c r="O15">
-        <v>35226.68506870016</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P15">
-        <v>34423.51290600393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>38582.88315041603</v>
+      </c>
+      <c r="Q15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C16">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D16">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E16">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16">
-        <v>22339</v>
+        <v>20735</v>
       </c>
       <c r="H16">
-        <v>1712940074435354</v>
+        <v>31514248680103.11</v>
       </c>
       <c r="I16">
-        <v>17969</v>
+        <v>16029</v>
       </c>
       <c r="J16">
-        <v>4370</v>
+        <v>4706</v>
       </c>
       <c r="K16">
-        <v>18048</v>
+        <v>18643</v>
       </c>
       <c r="L16">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M16">
-        <v>14873</v>
+        <v>14563</v>
       </c>
       <c r="N16">
-        <v>3175</v>
+        <v>4080</v>
       </c>
       <c r="O16">
-        <v>35226.68506870016</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P16">
-        <v>35958.55967377617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>36947.92145211433</v>
+      </c>
+      <c r="Q16">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D17">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E17">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="F17">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G17">
-        <v>24043</v>
+        <v>21476</v>
       </c>
       <c r="H17">
-        <v>1732748369804700</v>
+        <v>31517094146141.12</v>
       </c>
       <c r="I17">
-        <v>19223</v>
+        <v>17155</v>
       </c>
       <c r="J17">
-        <v>4820</v>
+        <v>4321</v>
       </c>
       <c r="K17">
-        <v>21620</v>
+        <v>18536</v>
       </c>
       <c r="L17">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="M17">
-        <v>16860</v>
+        <v>15153</v>
       </c>
       <c r="N17">
-        <v>4760</v>
+        <v>3383</v>
       </c>
       <c r="O17">
-        <v>36077.90879849231</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P17">
-        <v>36655.65999026866</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>37085.25603201449</v>
+      </c>
+      <c r="Q17">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C18">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D18">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E18">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F18">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G18">
-        <v>21668</v>
+        <v>18681</v>
       </c>
       <c r="H18">
-        <v>1710260685354695</v>
+        <v>218305226260.53</v>
       </c>
       <c r="I18">
-        <v>16848</v>
+        <v>14536</v>
       </c>
       <c r="J18">
-        <v>4820</v>
+        <v>4145</v>
       </c>
       <c r="K18">
-        <v>19003</v>
+        <v>19397</v>
       </c>
       <c r="L18">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M18">
-        <v>15373</v>
+        <v>16142</v>
       </c>
       <c r="N18">
-        <v>3630</v>
+        <v>3255</v>
       </c>
       <c r="O18">
-        <v>35226.68506870016</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P18">
-        <v>35887.11588949226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>38560.47427314487</v>
+      </c>
+      <c r="Q18">
+        <v>-716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D19">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E19">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G19">
-        <v>22868</v>
+        <v>22326</v>
       </c>
       <c r="H19">
-        <v>2514420849121040</v>
+        <v>4269853897397.222</v>
       </c>
       <c r="I19">
-        <v>17059</v>
+        <v>16478</v>
       </c>
       <c r="J19">
-        <v>5809</v>
+        <v>5848</v>
       </c>
       <c r="K19">
-        <v>19689</v>
+        <v>15595</v>
       </c>
       <c r="L19">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="M19">
-        <v>15289</v>
+        <v>11817</v>
       </c>
       <c r="N19">
-        <v>4400</v>
+        <v>3778</v>
       </c>
       <c r="O19">
-        <v>32332.95118235017</v>
+        <v>42174.08242759388</v>
       </c>
       <c r="P19">
-        <v>37523.16452922924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>35647.81592187665</v>
+      </c>
+      <c r="Q19">
+        <v>6731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C20">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D20">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E20">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F20">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G20">
-        <v>21100</v>
+        <v>20494</v>
       </c>
       <c r="H20">
-        <v>1718397914574853</v>
+        <v>100045312182561.2</v>
       </c>
       <c r="I20">
-        <v>15549</v>
+        <v>15019</v>
       </c>
       <c r="J20">
-        <v>5551</v>
+        <v>5475</v>
       </c>
       <c r="K20">
-        <v>17574</v>
+        <v>18213</v>
       </c>
       <c r="L20">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="M20">
-        <v>12947</v>
+        <v>13597</v>
       </c>
       <c r="N20">
-        <v>4627</v>
+        <v>4616</v>
       </c>
       <c r="O20">
-        <v>34389.81072069243</v>
+        <v>38575.44213861947</v>
       </c>
       <c r="P20">
-        <v>37662.70875446197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>38148.35932095733</v>
+      </c>
+      <c r="Q20">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C21">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D21">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E21">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="F21">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G21">
-        <v>21957</v>
+        <v>19832</v>
       </c>
       <c r="H21">
-        <v>1712967117297373</v>
+        <v>232847507191046.5</v>
       </c>
       <c r="I21">
-        <v>15824</v>
+        <v>13878</v>
       </c>
       <c r="J21">
-        <v>6133</v>
+        <v>5954</v>
       </c>
       <c r="K21">
-        <v>22154</v>
+        <v>20832</v>
       </c>
       <c r="L21">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M21">
-        <v>16229</v>
+        <v>14733</v>
       </c>
       <c r="N21">
-        <v>5925</v>
+        <v>6099</v>
       </c>
       <c r="O21">
-        <v>34389.81072069243</v>
+        <v>39566.52778977975</v>
       </c>
       <c r="P21">
-        <v>37232.59964026778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>38154.44594567187</v>
+      </c>
+      <c r="Q21">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>172</v>
+      </c>
+      <c r="E22">
         <v>129</v>
       </c>
-      <c r="D22">
-        <v>229</v>
-      </c>
-      <c r="E22">
-        <v>99</v>
-      </c>
       <c r="F22">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <v>21280</v>
+        <v>24368</v>
       </c>
       <c r="H22">
-        <v>15802699124615.16</v>
+        <v>1319683020259530</v>
       </c>
       <c r="I22">
-        <v>17615</v>
+        <v>19658</v>
       </c>
       <c r="J22">
-        <v>3665</v>
+        <v>4710</v>
       </c>
       <c r="K22">
-        <v>20046</v>
+        <v>18322</v>
       </c>
       <c r="L22">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="M22">
-        <v>15534</v>
+        <v>13918</v>
       </c>
       <c r="N22">
-        <v>4512</v>
+        <v>4404</v>
       </c>
       <c r="O22">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P22">
-        <v>36775.75215264087</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>37505.34851778879</v>
+      </c>
+      <c r="Q22">
+        <v>6046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C23">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D23">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E23">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="F23">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G23">
-        <v>21360</v>
+        <v>22928</v>
       </c>
       <c r="H23">
-        <v>33728230665022.49</v>
+        <v>1176031752830308</v>
       </c>
       <c r="I23">
-        <v>16599</v>
+        <v>17728</v>
       </c>
       <c r="J23">
-        <v>4761</v>
+        <v>5200</v>
       </c>
       <c r="K23">
-        <v>17311</v>
+        <v>17781</v>
       </c>
       <c r="L23">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="M23">
-        <v>12774</v>
+        <v>12910</v>
       </c>
       <c r="N23">
-        <v>4537</v>
+        <v>4871</v>
       </c>
       <c r="O23">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P23">
-        <v>36381.15470338041</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>35635.97513115848</v>
+      </c>
+      <c r="Q23">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C24">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D24">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E24">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G24">
-        <v>22807</v>
+        <v>23864</v>
       </c>
       <c r="H24">
-        <v>91578283701687.03</v>
+        <v>1142400290097408</v>
       </c>
       <c r="I24">
-        <v>18275</v>
+        <v>18350</v>
       </c>
       <c r="J24">
-        <v>4532</v>
+        <v>5514</v>
       </c>
       <c r="K24">
-        <v>16938</v>
+        <v>19178</v>
       </c>
       <c r="L24">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M24">
-        <v>13034</v>
+        <v>14162</v>
       </c>
       <c r="N24">
-        <v>3904</v>
+        <v>5016</v>
       </c>
       <c r="O24">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P24">
-        <v>35459.13057612714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>36599.59102361536</v>
+      </c>
+      <c r="Q24">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C25">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D25">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E25">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F25">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G25">
-        <v>20664</v>
+        <v>23510</v>
       </c>
       <c r="H25">
-        <v>7973278815875.518</v>
+        <v>1123802774912320</v>
       </c>
       <c r="I25">
-        <v>15682</v>
+        <v>18272</v>
       </c>
       <c r="J25">
-        <v>4982</v>
+        <v>5238</v>
       </c>
       <c r="K25">
-        <v>19255</v>
+        <v>17223</v>
       </c>
       <c r="L25">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M25">
-        <v>13719</v>
+        <v>12966</v>
       </c>
       <c r="N25">
-        <v>5536</v>
+        <v>4257</v>
       </c>
       <c r="O25">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P25">
-        <v>36368.21679283286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>37177.16508732719</v>
+      </c>
+      <c r="Q25">
+        <v>6287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C26">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D26">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E26">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F26">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G26">
-        <v>20563</v>
+        <v>23616</v>
       </c>
       <c r="H26">
-        <v>34128037793139.68</v>
+        <v>1098070057248377</v>
       </c>
       <c r="I26">
-        <v>15166</v>
+        <v>17160</v>
       </c>
       <c r="J26">
-        <v>5397</v>
+        <v>6456</v>
       </c>
       <c r="K26">
-        <v>19583</v>
+        <v>17200</v>
       </c>
       <c r="L26">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="M26">
-        <v>12569</v>
+        <v>12297</v>
       </c>
       <c r="N26">
-        <v>7014</v>
+        <v>4903</v>
       </c>
       <c r="O26">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P26">
-        <v>37627.98464763338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>36070.7816841091</v>
+      </c>
+      <c r="Q26">
+        <v>6416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C27">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D27">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E27">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="F27">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G27">
-        <v>21049</v>
+        <v>23342</v>
       </c>
       <c r="H27">
-        <v>91682710181639.88</v>
+        <v>1471630506522794</v>
       </c>
       <c r="I27">
-        <v>14615</v>
+        <v>17338</v>
       </c>
       <c r="J27">
-        <v>6434</v>
+        <v>6004</v>
       </c>
       <c r="K27">
-        <v>17620</v>
+        <v>18349</v>
       </c>
       <c r="L27">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M27">
-        <v>11595</v>
+        <v>13510</v>
       </c>
       <c r="N27">
-        <v>6025</v>
+        <v>4839</v>
       </c>
       <c r="O27">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P27">
-        <v>37044.84887847579</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>35494.13013521752</v>
+      </c>
+      <c r="Q27">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C28">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D28">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E28">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F28">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G28">
-        <v>21207</v>
+        <v>24294</v>
       </c>
       <c r="H28">
-        <v>4033838457447.6</v>
+        <v>1908119172766680</v>
       </c>
       <c r="I28">
-        <v>16432</v>
+        <v>17624</v>
       </c>
       <c r="J28">
-        <v>4775</v>
+        <v>6670</v>
       </c>
       <c r="K28">
-        <v>19961</v>
+        <v>17870</v>
       </c>
       <c r="L28">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M28">
-        <v>13505</v>
+        <v>12200</v>
       </c>
       <c r="N28">
-        <v>6456</v>
+        <v>5670</v>
       </c>
       <c r="O28">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P28">
-        <v>37583.63415240931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>35677.27939841209</v>
+      </c>
+      <c r="Q28">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C29">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D29">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E29">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F29">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G29">
-        <v>23068</v>
+        <v>23730</v>
       </c>
       <c r="H29">
-        <v>100801440976116.5</v>
+        <v>1286051322424180</v>
       </c>
       <c r="I29">
-        <v>15073</v>
+        <v>16660</v>
       </c>
       <c r="J29">
-        <v>7995</v>
+        <v>7070</v>
       </c>
       <c r="K29">
-        <v>20766</v>
+        <v>18445</v>
       </c>
       <c r="L29">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="M29">
-        <v>12228</v>
+        <v>12373</v>
       </c>
       <c r="N29">
-        <v>8538</v>
+        <v>6072</v>
       </c>
       <c r="O29">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P29">
-        <v>38667.05294273444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>37346.96718387034</v>
+      </c>
+      <c r="Q29">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C30">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D30">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E30">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F30">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G30">
-        <v>23067</v>
+        <v>24452</v>
       </c>
       <c r="H30">
-        <v>250013435864821</v>
+        <v>1182257636746803</v>
       </c>
       <c r="I30">
-        <v>13734</v>
+        <v>17344</v>
       </c>
       <c r="J30">
-        <v>9333</v>
+        <v>7108</v>
       </c>
       <c r="K30">
-        <v>20311</v>
+        <v>18921</v>
       </c>
       <c r="L30">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M30">
-        <v>12258</v>
+        <v>12365</v>
       </c>
       <c r="N30">
-        <v>8053</v>
+        <v>6556</v>
       </c>
       <c r="O30">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P30">
-        <v>35981.81391540873</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>36884.17701525884</v>
+      </c>
+      <c r="Q30">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C31">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D31">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E31">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="F31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G31">
-        <v>22152</v>
+        <v>25358</v>
       </c>
       <c r="H31">
-        <v>72082696842137.72</v>
+        <v>1609055737052199</v>
       </c>
       <c r="I31">
-        <v>14086</v>
+        <v>18212</v>
       </c>
       <c r="J31">
-        <v>8066</v>
+        <v>7146</v>
       </c>
       <c r="K31">
-        <v>20064</v>
+        <v>16890</v>
       </c>
       <c r="L31">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="M31">
-        <v>13235</v>
+        <v>10423</v>
       </c>
       <c r="N31">
-        <v>6829</v>
+        <v>6467</v>
       </c>
       <c r="O31">
-        <v>39649.85711230832</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P31">
-        <v>38322.82947514986</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>36929.13941431775</v>
+      </c>
+      <c r="Q31">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C32">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D32">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E32">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G32">
-        <v>22448</v>
+        <v>24362</v>
       </c>
       <c r="H32">
-        <v>33836127481594.06</v>
+        <v>1488554346000128</v>
       </c>
       <c r="I32">
-        <v>15183</v>
+        <v>16764</v>
       </c>
       <c r="J32">
-        <v>7265</v>
+        <v>7598</v>
       </c>
       <c r="K32">
-        <v>19593</v>
+        <v>18571</v>
       </c>
       <c r="L32">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="M32">
-        <v>13257</v>
+        <v>12520</v>
       </c>
       <c r="N32">
-        <v>6336</v>
+        <v>6051</v>
       </c>
       <c r="O32">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P32">
-        <v>38366.74827989161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>37038.05537234583</v>
+      </c>
+      <c r="Q32">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E33">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F33">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G33">
-        <v>18999</v>
+        <v>24186</v>
       </c>
       <c r="H33">
-        <v>679203141641.0488</v>
+        <v>1194630086025929</v>
       </c>
       <c r="I33">
-        <v>12728</v>
+        <v>16412</v>
       </c>
       <c r="J33">
-        <v>6271</v>
+        <v>7774</v>
       </c>
       <c r="K33">
-        <v>17508</v>
+        <v>16985</v>
       </c>
       <c r="L33">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M33">
-        <v>10881</v>
+        <v>9952</v>
       </c>
       <c r="N33">
-        <v>6627</v>
+        <v>7033</v>
       </c>
       <c r="O33">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P33">
-        <v>38015.0773451284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>36539.79926683626</v>
+      </c>
+      <c r="Q33">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C34">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D34">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E34">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="F34">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G34">
-        <v>20564</v>
+        <v>23786</v>
       </c>
       <c r="H34">
-        <v>15801965491519.48</v>
+        <v>1123185497152479</v>
       </c>
       <c r="I34">
-        <v>13185</v>
+        <v>15436</v>
       </c>
       <c r="J34">
-        <v>7379</v>
+        <v>8350</v>
       </c>
       <c r="K34">
-        <v>19757</v>
+        <v>18255</v>
       </c>
       <c r="L34">
         <v>138</v>
       </c>
       <c r="M34">
-        <v>12054</v>
+        <v>11788</v>
       </c>
       <c r="N34">
-        <v>7703</v>
+        <v>6467</v>
       </c>
       <c r="O34">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P34">
-        <v>37647.37502752807</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>38046.42250838097</v>
+      </c>
+      <c r="Q34">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C35">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D35">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E35">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F35">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G35">
-        <v>20518</v>
+        <v>24294</v>
       </c>
       <c r="H35">
-        <v>34922596153233.52</v>
+        <v>2550001379727450</v>
       </c>
       <c r="I35">
-        <v>12654</v>
+        <v>16344</v>
       </c>
       <c r="J35">
-        <v>7864</v>
+        <v>7950</v>
       </c>
       <c r="K35">
-        <v>18576</v>
+        <v>19696</v>
       </c>
       <c r="L35">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M35">
-        <v>11529</v>
+        <v>11313</v>
       </c>
       <c r="N35">
-        <v>7047</v>
+        <v>8383</v>
       </c>
       <c r="O35">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P35">
-        <v>38173.59163998819</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>36559.17845400587</v>
+      </c>
+      <c r="Q35">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C36">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D36">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E36">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F36">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G36">
-        <v>21265</v>
+        <v>23790</v>
       </c>
       <c r="H36">
-        <v>9297990202398.654</v>
+        <v>1182258158646176</v>
       </c>
       <c r="I36">
-        <v>11212</v>
+        <v>15374</v>
       </c>
       <c r="J36">
-        <v>10053</v>
+        <v>8416</v>
       </c>
       <c r="K36">
-        <v>16783</v>
+        <v>16670</v>
       </c>
       <c r="L36">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M36">
-        <v>10350</v>
+        <v>9964</v>
       </c>
       <c r="N36">
-        <v>6433</v>
+        <v>6706</v>
       </c>
       <c r="O36">
-        <v>39649.85711230832</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P36">
-        <v>35754.49223551575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>36798.94017696938</v>
+      </c>
+      <c r="Q36">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C37">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D37">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E37">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F37">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G37">
-        <v>23147</v>
+        <v>24858</v>
       </c>
       <c r="H37">
-        <v>21673973991924.67</v>
+        <v>1286051016097503</v>
       </c>
       <c r="I37">
-        <v>14564</v>
+        <v>15666</v>
       </c>
       <c r="J37">
-        <v>8583</v>
+        <v>9192</v>
       </c>
       <c r="K37">
-        <v>19944</v>
+        <v>18443</v>
       </c>
       <c r="L37">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M37">
-        <v>11888</v>
+        <v>9731</v>
       </c>
       <c r="N37">
-        <v>8056</v>
+        <v>8712</v>
       </c>
       <c r="O37">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P37">
-        <v>35939.77806100644</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>36249.26043555641</v>
+      </c>
+      <c r="Q37">
+        <v>6415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C38">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D38">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E38">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F38">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G38">
-        <v>17611</v>
+        <v>23940</v>
       </c>
       <c r="H38">
-        <v>692407066654.4734</v>
+        <v>1319682819722180</v>
       </c>
       <c r="I38">
-        <v>11111</v>
+        <v>14586</v>
       </c>
       <c r="J38">
-        <v>6500</v>
+        <v>9354</v>
       </c>
       <c r="K38">
-        <v>19210</v>
+        <v>18279</v>
       </c>
       <c r="L38">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M38">
-        <v>11488</v>
+        <v>10167</v>
       </c>
       <c r="N38">
-        <v>7722</v>
+        <v>8112</v>
       </c>
       <c r="O38">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P38">
-        <v>39058.40362820872</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>36235.34866631836</v>
+      </c>
+      <c r="Q38">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C39">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D39">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E39">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F39">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G39">
-        <v>23282</v>
+        <v>22620</v>
       </c>
       <c r="H39">
-        <v>249221965719308.5</v>
+        <v>1240046678113516</v>
       </c>
       <c r="I39">
-        <v>13038</v>
+        <v>13390</v>
       </c>
       <c r="J39">
-        <v>10244</v>
+        <v>9230</v>
       </c>
       <c r="K39">
-        <v>23369</v>
+        <v>17676</v>
       </c>
       <c r="L39">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M39">
-        <v>11972</v>
+        <v>10199</v>
       </c>
       <c r="N39">
-        <v>11397</v>
+        <v>7477</v>
       </c>
       <c r="O39">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P39">
-        <v>39142.55601064316</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>36071.99829005</v>
+      </c>
+      <c r="Q39">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C40">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D40">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="E40">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F40">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G40">
-        <v>21578</v>
+        <v>24676</v>
       </c>
       <c r="H40">
-        <v>126645827847.4182</v>
+        <v>1273679049381431</v>
       </c>
       <c r="I40">
-        <v>11062</v>
+        <v>15618</v>
       </c>
       <c r="J40">
-        <v>10516</v>
+        <v>9058</v>
       </c>
       <c r="K40">
-        <v>21567</v>
+        <v>16771</v>
       </c>
       <c r="L40">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="M40">
-        <v>10719</v>
+        <v>9588</v>
       </c>
       <c r="N40">
-        <v>10848</v>
+        <v>7183</v>
       </c>
       <c r="O40">
-        <v>41909.23231653003</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P40">
-        <v>38036.24412057874</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>36574.97027764473</v>
+      </c>
+      <c r="Q40">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
+        <v>137</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>172</v>
+      </c>
+      <c r="E41">
+        <v>99</v>
+      </c>
+      <c r="F41">
+        <v>64</v>
+      </c>
+      <c r="G41">
+        <v>24412</v>
+      </c>
+      <c r="H41">
+        <v>1110454037445461</v>
+      </c>
+      <c r="I41">
+        <v>14630</v>
+      </c>
+      <c r="J41">
+        <v>9782</v>
+      </c>
+      <c r="K41">
+        <v>19082</v>
+      </c>
+      <c r="L41">
         <v>166</v>
       </c>
-      <c r="C41">
-        <v>129</v>
-      </c>
-      <c r="D41">
-        <v>229</v>
-      </c>
-      <c r="E41">
-        <v>65</v>
-      </c>
-      <c r="F41">
-        <v>35</v>
-      </c>
-      <c r="G41">
-        <v>17573</v>
-      </c>
-      <c r="H41">
-        <v>251031073847.5504</v>
-      </c>
-      <c r="I41">
-        <v>11460</v>
-      </c>
-      <c r="J41">
-        <v>6113</v>
-      </c>
-      <c r="K41">
-        <v>16993</v>
-      </c>
-      <c r="L41">
-        <v>121</v>
-      </c>
       <c r="M41">
-        <v>11164</v>
+        <v>10032</v>
       </c>
       <c r="N41">
-        <v>5829</v>
+        <v>9050</v>
       </c>
       <c r="O41">
-        <v>40778.22345180024</v>
+        <v>33230.78322934084</v>
       </c>
       <c r="P41">
-        <v>39264.3398994919</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>36324.47331101448</v>
+      </c>
+      <c r="Q41">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C42">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D42">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E42">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F42">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G42">
-        <v>24235</v>
+        <v>21359</v>
       </c>
       <c r="H42">
-        <v>1881319992708944</v>
+        <v>1547533514341.986</v>
       </c>
       <c r="I42">
-        <v>13877</v>
+        <v>11629</v>
       </c>
       <c r="J42">
-        <v>10358</v>
+        <v>9730</v>
       </c>
       <c r="K42">
-        <v>17124</v>
+        <v>17953</v>
       </c>
       <c r="L42">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M42">
-        <v>10521</v>
+        <v>10340</v>
       </c>
       <c r="N42">
-        <v>6603</v>
+        <v>7613</v>
       </c>
       <c r="O42">
-        <v>34557.49498473979</v>
+        <v>39491.74303723297</v>
       </c>
       <c r="P42">
-        <v>35258.78658129913</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>36019.42891321745</v>
+      </c>
+      <c r="Q42">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="C43">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D43">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="E43">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F43">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G43">
-        <v>22845</v>
+        <v>22675</v>
       </c>
       <c r="H43">
-        <v>1882013769384990</v>
+        <v>44038501471.8426</v>
       </c>
       <c r="I43">
-        <v>13038</v>
+        <v>9071</v>
       </c>
       <c r="J43">
-        <v>9807</v>
+        <v>13604</v>
       </c>
       <c r="K43">
-        <v>18498</v>
+        <v>18595</v>
       </c>
       <c r="L43">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M43">
-        <v>7995</v>
+        <v>10032</v>
       </c>
       <c r="N43">
-        <v>10503</v>
+        <v>8563</v>
       </c>
       <c r="O43">
-        <v>34557.49498473979</v>
+        <v>43606.37270188656</v>
       </c>
       <c r="P43">
-        <v>36704.26780665603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>36680.94207791694</v>
+      </c>
+      <c r="Q43">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C44">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D44">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E44">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F44">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G44">
-        <v>25936</v>
+        <v>23185</v>
       </c>
       <c r="H44">
-        <v>1889543935190127</v>
+        <v>171257992208.0577</v>
       </c>
       <c r="I44">
-        <v>14645</v>
+        <v>11809</v>
       </c>
       <c r="J44">
-        <v>11291</v>
+        <v>11376</v>
       </c>
       <c r="K44">
-        <v>19031</v>
+        <v>19616</v>
       </c>
       <c r="L44">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="M44">
-        <v>10988</v>
+        <v>8969</v>
       </c>
       <c r="N44">
-        <v>8043</v>
+        <v>10647</v>
       </c>
       <c r="O44">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P44">
-        <v>37114.92487351003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>37101.18167521043</v>
+      </c>
+      <c r="Q44">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C45">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D45">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E45">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F45">
         <v>73</v>
       </c>
       <c r="G45">
-        <v>22702</v>
+        <v>22412</v>
       </c>
       <c r="H45">
-        <v>1884008450754371</v>
+        <v>1182861000182.434</v>
       </c>
       <c r="I45">
-        <v>12640</v>
+        <v>10551</v>
       </c>
       <c r="J45">
-        <v>10062</v>
+        <v>11861</v>
       </c>
       <c r="K45">
-        <v>20954</v>
+        <v>19201</v>
       </c>
       <c r="L45">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="M45">
-        <v>10340</v>
+        <v>10307</v>
       </c>
       <c r="N45">
-        <v>10614</v>
+        <v>8894</v>
       </c>
       <c r="O45">
-        <v>34557.49498473979</v>
+        <v>39491.74303723297</v>
       </c>
       <c r="P45">
-        <v>36488.90320857785</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>36655.63712667907</v>
+      </c>
+      <c r="Q45">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C46">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D46">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E46">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F46">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G46">
-        <v>22705</v>
+        <v>20999</v>
       </c>
       <c r="H46">
-        <v>1880959359441848</v>
+        <v>1367162623371.292</v>
       </c>
       <c r="I46">
-        <v>12366</v>
+        <v>9742</v>
       </c>
       <c r="J46">
-        <v>10339</v>
+        <v>11257</v>
       </c>
       <c r="K46">
-        <v>16947</v>
+        <v>20600</v>
       </c>
       <c r="L46">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="M46">
-        <v>8293</v>
+        <v>8735</v>
       </c>
       <c r="N46">
-        <v>8654</v>
+        <v>11865</v>
       </c>
       <c r="O46">
-        <v>34557.49498473979</v>
+        <v>39491.74303723297</v>
       </c>
       <c r="P46">
-        <v>38946.06159494998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>36752.50690047103</v>
+      </c>
+      <c r="Q46">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C47">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D47">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E47">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F47">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G47">
-        <v>23299</v>
+        <v>20284</v>
       </c>
       <c r="H47">
-        <v>2054374765036746</v>
+        <v>257676184793.8557</v>
       </c>
       <c r="I47">
-        <v>11745</v>
+        <v>8774</v>
       </c>
       <c r="J47">
-        <v>11554</v>
+        <v>11510</v>
       </c>
       <c r="K47">
-        <v>22182</v>
+        <v>20495</v>
       </c>
       <c r="L47">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M47">
-        <v>9958</v>
+        <v>8761</v>
       </c>
       <c r="N47">
-        <v>12224</v>
+        <v>11734</v>
       </c>
       <c r="O47">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P47">
-        <v>36396.92035810983</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>37473.39609745202</v>
+      </c>
+      <c r="Q47">
+        <v>-211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D48">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E48">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F48">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G48">
-        <v>25453</v>
+        <v>21731</v>
       </c>
       <c r="H48">
-        <v>1889549807707989</v>
+        <v>110296354335.125</v>
       </c>
       <c r="I48">
-        <v>13001</v>
+        <v>9920</v>
       </c>
       <c r="J48">
-        <v>12452</v>
+        <v>11811</v>
       </c>
       <c r="K48">
-        <v>20849</v>
+        <v>22113</v>
       </c>
       <c r="L48">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="M48">
-        <v>9424</v>
+        <v>11436</v>
       </c>
       <c r="N48">
-        <v>11425</v>
+        <v>10677</v>
       </c>
       <c r="O48">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P48">
-        <v>36177.03845283626</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>37749.5961499808</v>
+      </c>
+      <c r="Q48">
+        <v>-382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C49">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D49">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E49">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="F49">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G49">
-        <v>24184</v>
+        <v>21776</v>
       </c>
       <c r="H49">
-        <v>1882082344633358</v>
+        <v>61732952247.83693</v>
       </c>
       <c r="I49">
-        <v>11683</v>
+        <v>9199</v>
       </c>
       <c r="J49">
-        <v>12501</v>
+        <v>12577</v>
       </c>
       <c r="K49">
-        <v>19478</v>
+        <v>19799</v>
       </c>
       <c r="L49">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="M49">
-        <v>9196</v>
+        <v>8994</v>
       </c>
       <c r="N49">
-        <v>10282</v>
+        <v>10805</v>
       </c>
       <c r="O49">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P49">
-        <v>36027.01536802146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+        <v>38485.52923403621</v>
+      </c>
+      <c r="Q49">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C50">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D50">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E50">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F50">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50">
-        <v>24646</v>
+        <v>21856</v>
       </c>
       <c r="H50">
-        <v>1881285878536334</v>
+        <v>134456273661.555</v>
       </c>
       <c r="I50">
-        <v>12203</v>
+        <v>9244</v>
       </c>
       <c r="J50">
-        <v>12443</v>
+        <v>12612</v>
       </c>
       <c r="K50">
-        <v>20894</v>
+        <v>18407</v>
       </c>
       <c r="L50">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M50">
-        <v>8832</v>
+        <v>8535</v>
       </c>
       <c r="N50">
-        <v>12062</v>
+        <v>9872</v>
       </c>
       <c r="O50">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P50">
-        <v>37210.0863015252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>37218.23686542522</v>
+      </c>
+      <c r="Q50">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C51">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D51">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E51">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F51">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G51">
-        <v>24959</v>
+        <v>21880</v>
       </c>
       <c r="H51">
-        <v>1889493480359680</v>
+        <v>175320171676.4263</v>
       </c>
       <c r="I51">
-        <v>11416</v>
+        <v>9565</v>
       </c>
       <c r="J51">
-        <v>13543</v>
+        <v>12315</v>
       </c>
       <c r="K51">
-        <v>20418</v>
+        <v>16324</v>
       </c>
       <c r="L51">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="M51">
-        <v>7884</v>
+        <v>8296</v>
       </c>
       <c r="N51">
-        <v>12534</v>
+        <v>8028</v>
       </c>
       <c r="O51">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P51">
-        <v>35474.58614409134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>36536.98613571772</v>
+      </c>
+      <c r="Q51">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C52">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D52">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E52">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F52">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="G52">
-        <v>24935</v>
+        <v>20254</v>
       </c>
       <c r="H52">
-        <v>1904776962836238</v>
+        <v>291678787036.4276</v>
       </c>
       <c r="I52">
-        <v>12292</v>
+        <v>8607</v>
       </c>
       <c r="J52">
-        <v>12643</v>
+        <v>11647</v>
       </c>
       <c r="K52">
-        <v>21971</v>
+        <v>19137</v>
       </c>
       <c r="L52">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M52">
-        <v>8152</v>
+        <v>7955</v>
       </c>
       <c r="N52">
-        <v>13819</v>
+        <v>11182</v>
       </c>
       <c r="O52">
-        <v>34557.49498473979</v>
+        <v>39982.21286046736</v>
       </c>
       <c r="P52">
-        <v>35863.68882383702</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+        <v>36305.34146882162</v>
+      </c>
+      <c r="Q52">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C53">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D53">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E53">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F53">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G53">
-        <v>23139</v>
+        <v>21336</v>
       </c>
       <c r="H53">
-        <v>1881080762614372</v>
+        <v>619432210256.548</v>
       </c>
       <c r="I53">
-        <v>11125</v>
+        <v>8539</v>
       </c>
       <c r="J53">
-        <v>12014</v>
+        <v>12797</v>
       </c>
       <c r="K53">
-        <v>17202</v>
+        <v>19305</v>
       </c>
       <c r="L53">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="M53">
-        <v>8082</v>
+        <v>7979</v>
       </c>
       <c r="N53">
-        <v>9120</v>
+        <v>11326</v>
       </c>
       <c r="O53">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P53">
-        <v>35003.31022926519</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>37353.1548069309</v>
+      </c>
+      <c r="Q53">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C54">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D54">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E54">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F54">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G54">
-        <v>26581</v>
+        <v>21729</v>
       </c>
       <c r="H54">
-        <v>1882201947228616</v>
+        <v>167231427645.6484</v>
       </c>
       <c r="I54">
-        <v>11845</v>
+        <v>7742</v>
       </c>
       <c r="J54">
-        <v>14736</v>
+        <v>13987</v>
       </c>
       <c r="K54">
-        <v>21097</v>
+        <v>22032</v>
       </c>
       <c r="L54">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M54">
-        <v>6694</v>
+        <v>8096</v>
       </c>
       <c r="N54">
-        <v>14403</v>
+        <v>13936</v>
       </c>
       <c r="O54">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P54">
-        <v>37252.89491198577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>36755.38538128463</v>
+      </c>
+      <c r="Q54">
+        <v>-303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C55">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D55">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E55">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F55">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G55">
-        <v>25077</v>
+        <v>21060</v>
       </c>
       <c r="H55">
-        <v>1881236597788418</v>
+        <v>453985047889.6245</v>
       </c>
       <c r="I55">
-        <v>11589</v>
+        <v>9020</v>
       </c>
       <c r="J55">
-        <v>13488</v>
+        <v>12040</v>
       </c>
       <c r="K55">
-        <v>21295</v>
+        <v>16233</v>
       </c>
       <c r="L55">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="M55">
-        <v>8736</v>
+        <v>7419</v>
       </c>
       <c r="N55">
-        <v>12559</v>
+        <v>8814</v>
       </c>
       <c r="O55">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P55">
-        <v>36526.55190573657</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>36505.60969223709</v>
+      </c>
+      <c r="Q55">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C56">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D56">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E56">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F56">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G56">
-        <v>23324</v>
+        <v>22224</v>
       </c>
       <c r="H56">
-        <v>1884075660497797</v>
+        <v>365003168835.7992</v>
       </c>
       <c r="I56">
-        <v>9516</v>
+        <v>7712</v>
       </c>
       <c r="J56">
-        <v>13808</v>
+        <v>14512</v>
       </c>
       <c r="K56">
-        <v>18705</v>
+        <v>19444</v>
       </c>
       <c r="L56">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M56">
-        <v>7889</v>
+        <v>6226</v>
       </c>
       <c r="N56">
-        <v>10816</v>
+        <v>13218</v>
       </c>
       <c r="O56">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P56">
-        <v>38602.90081697446</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>35675.81931677679</v>
+      </c>
+      <c r="Q56">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C57">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D57">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E57">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F57">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="G57">
-        <v>23962</v>
+        <v>21129</v>
       </c>
       <c r="H57">
-        <v>1883126256004591</v>
+        <v>4069090668468.67</v>
       </c>
       <c r="I57">
-        <v>8703</v>
+        <v>7419</v>
       </c>
       <c r="J57">
-        <v>15259</v>
+        <v>13710</v>
       </c>
       <c r="K57">
-        <v>18597</v>
+        <v>19268</v>
       </c>
       <c r="L57">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M57">
-        <v>7017</v>
+        <v>6934</v>
       </c>
       <c r="N57">
-        <v>11580</v>
+        <v>12334</v>
       </c>
       <c r="O57">
-        <v>32286.76328253472</v>
+        <v>39982.21286046736</v>
       </c>
       <c r="P57">
-        <v>37094.83736742541</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>36442.27115096887</v>
+      </c>
+      <c r="Q57">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="C58">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D58">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="E58">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F58">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G58">
-        <v>24152</v>
+        <v>24944</v>
       </c>
       <c r="H58">
-        <v>1889640637379071</v>
+        <v>504740511573.4781</v>
       </c>
       <c r="I58">
-        <v>11252</v>
+        <v>6507</v>
       </c>
       <c r="J58">
-        <v>12900</v>
+        <v>18437</v>
       </c>
       <c r="K58">
-        <v>17835</v>
+        <v>22856</v>
       </c>
       <c r="L58">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M58">
-        <v>6936</v>
+        <v>7334</v>
       </c>
       <c r="N58">
-        <v>10899</v>
+        <v>15522</v>
       </c>
       <c r="O58">
-        <v>34557.49498473979</v>
+        <v>43606.37270188656</v>
       </c>
       <c r="P58">
-        <v>33822.50546418101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>37080.08907677509</v>
+      </c>
+      <c r="Q58">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C59">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D59">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E59">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F59">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G59">
-        <v>23041</v>
+        <v>21712</v>
       </c>
       <c r="H59">
-        <v>1881081733071434</v>
+        <v>1405153099778.654</v>
       </c>
       <c r="I59">
-        <v>8382</v>
+        <v>7949</v>
       </c>
       <c r="J59">
-        <v>14659</v>
+        <v>13763</v>
       </c>
       <c r="K59">
-        <v>18643</v>
+        <v>20877</v>
       </c>
       <c r="L59">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="M59">
-        <v>6818</v>
+        <v>6315</v>
       </c>
       <c r="N59">
-        <v>11825</v>
+        <v>14562</v>
       </c>
       <c r="O59">
-        <v>34557.49498473979</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P59">
-        <v>36177.7832027832</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>36275.42920187244</v>
+      </c>
+      <c r="Q59">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C60">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D60">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E60">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F60">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G60">
-        <v>24084</v>
+        <v>25048</v>
       </c>
       <c r="H60">
-        <v>1882009328551744</v>
+        <v>10607914375128.75</v>
       </c>
       <c r="I60">
-        <v>8432</v>
+        <v>8057</v>
       </c>
       <c r="J60">
-        <v>15652</v>
+        <v>16991</v>
       </c>
       <c r="K60">
-        <v>21823</v>
+        <v>19369</v>
       </c>
       <c r="L60">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M60">
-        <v>6495</v>
+        <v>6676</v>
       </c>
       <c r="N60">
-        <v>15328</v>
+        <v>12693</v>
       </c>
       <c r="O60">
-        <v>34557.49498473979</v>
+        <v>39491.74303723297</v>
       </c>
       <c r="P60">
-        <v>36528.75160387304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>36032.88117222139</v>
+      </c>
+      <c r="Q60">
+        <v>5679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C61">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D61">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E61">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F61">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G61">
-        <v>23879</v>
+        <v>22244</v>
       </c>
       <c r="H61">
-        <v>1885447578130030</v>
+        <v>701204676605.8496</v>
       </c>
       <c r="I61">
-        <v>7574</v>
+        <v>6845</v>
       </c>
       <c r="J61">
-        <v>16305</v>
+        <v>15399</v>
       </c>
       <c r="K61">
-        <v>18075</v>
+        <v>19359</v>
       </c>
       <c r="L61">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M61">
-        <v>6978</v>
+        <v>5010</v>
       </c>
       <c r="N61">
-        <v>11097</v>
+        <v>14349</v>
       </c>
       <c r="O61">
-        <v>32286.76328253472</v>
+        <v>38141.88679794504</v>
       </c>
       <c r="P61">
-        <v>36371.91192001668</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>36344.11692557723</v>
+      </c>
+      <c r="Q61">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C62">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D62">
         <v>185</v>
       </c>
       <c r="E62">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F62">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G62">
-        <v>23373</v>
+        <v>23754</v>
       </c>
       <c r="H62">
-        <v>1047522521017171</v>
+        <v>1090462102362874</v>
       </c>
       <c r="I62">
-        <v>8518</v>
+        <v>8038</v>
       </c>
       <c r="J62">
-        <v>14855</v>
+        <v>15716</v>
       </c>
       <c r="K62">
-        <v>18067</v>
+        <v>20174</v>
       </c>
       <c r="L62">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M62">
-        <v>6456</v>
+        <v>6972</v>
       </c>
       <c r="N62">
-        <v>11611</v>
+        <v>13202</v>
       </c>
       <c r="O62">
-        <v>35998.6336004162</v>
+        <v>34730.13552894835</v>
       </c>
       <c r="P62">
-        <v>37419.36134303969</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>35769.89363220182</v>
+      </c>
+      <c r="Q62">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C63">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D63">
         <v>185</v>
       </c>
       <c r="E63">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F63">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G63">
-        <v>22600</v>
+        <v>26122</v>
       </c>
       <c r="H63">
-        <v>1049302500676395</v>
+        <v>1094957721798860</v>
       </c>
       <c r="I63">
-        <v>7169</v>
+        <v>7658</v>
       </c>
       <c r="J63">
-        <v>15431</v>
+        <v>18464</v>
       </c>
       <c r="K63">
-        <v>17834</v>
+        <v>19342</v>
       </c>
       <c r="L63">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="M63">
-        <v>6027</v>
+        <v>7640</v>
       </c>
       <c r="N63">
-        <v>11807</v>
+        <v>11702</v>
       </c>
       <c r="O63">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P63">
-        <v>35582.30415786913</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>37305.94503419006</v>
+      </c>
+      <c r="Q63">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C64">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D64">
         <v>185</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F64">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G64">
-        <v>25199</v>
+        <v>22782</v>
       </c>
       <c r="H64">
-        <v>1057573422043808</v>
+        <v>401229992217398.6</v>
       </c>
       <c r="I64">
-        <v>7907</v>
+        <v>5956</v>
       </c>
       <c r="J64">
-        <v>17292</v>
+        <v>16826</v>
       </c>
       <c r="K64">
-        <v>20547</v>
+        <v>20317</v>
       </c>
       <c r="L64">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="M64">
-        <v>5534</v>
+        <v>7194</v>
       </c>
       <c r="N64">
-        <v>15013</v>
+        <v>13123</v>
       </c>
       <c r="O64">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P64">
-        <v>35380.09783580318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>36613.98890047003</v>
+      </c>
+      <c r="Q64">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C65">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D65">
         <v>185</v>
@@ -3642,1837 +3837,1948 @@
         <v>47</v>
       </c>
       <c r="F65">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G65">
-        <v>21734</v>
+        <v>25582</v>
       </c>
       <c r="H65">
-        <v>1047779946385347</v>
+        <v>1090389116478971</v>
       </c>
       <c r="I65">
-        <v>7278</v>
+        <v>6957</v>
       </c>
       <c r="J65">
-        <v>14456</v>
+        <v>18625</v>
       </c>
       <c r="K65">
-        <v>20139</v>
+        <v>20536</v>
       </c>
       <c r="L65">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M65">
-        <v>7079</v>
+        <v>6221</v>
       </c>
       <c r="N65">
-        <v>13060</v>
+        <v>14315</v>
       </c>
       <c r="O65">
-        <v>35998.6336004162</v>
+        <v>34730.13552894835</v>
       </c>
       <c r="P65">
-        <v>37417.95894321527</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>35877.92101460519</v>
+      </c>
+      <c r="Q65">
+        <v>5046</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C66">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D66">
         <v>185</v>
       </c>
       <c r="E66">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F66">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G66">
-        <v>22424</v>
+        <v>23261</v>
       </c>
       <c r="H66">
-        <v>1048831804224809</v>
+        <v>1093137551233894</v>
       </c>
       <c r="I66">
-        <v>6096</v>
+        <v>5934</v>
       </c>
       <c r="J66">
-        <v>16328</v>
+        <v>17327</v>
       </c>
       <c r="K66">
-        <v>23172</v>
+        <v>20345</v>
       </c>
       <c r="L66">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="M66">
-        <v>6166</v>
+        <v>5102</v>
       </c>
       <c r="N66">
-        <v>17006</v>
+        <v>15243</v>
       </c>
       <c r="O66">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P66">
-        <v>35471.77600887987</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>36727.65806287429</v>
+      </c>
+      <c r="Q66">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C67">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D67">
         <v>185</v>
       </c>
       <c r="E67">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G67">
-        <v>24009</v>
+        <v>24980</v>
       </c>
       <c r="H67">
-        <v>1050941253203206</v>
+        <v>401661150278211.5</v>
       </c>
       <c r="I67">
-        <v>6671</v>
+        <v>5940</v>
       </c>
       <c r="J67">
-        <v>17338</v>
+        <v>19040</v>
       </c>
       <c r="K67">
-        <v>20969</v>
+        <v>17986</v>
       </c>
       <c r="L67">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M67">
-        <v>5555</v>
+        <v>5007</v>
       </c>
       <c r="N67">
-        <v>15414</v>
+        <v>12979</v>
       </c>
       <c r="O67">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P67">
-        <v>37181.33290823553</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>37236.83925889456</v>
+      </c>
+      <c r="Q67">
+        <v>6994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C68">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D68">
         <v>185</v>
       </c>
       <c r="E68">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F68">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G68">
-        <v>22668</v>
+        <v>23154</v>
       </c>
       <c r="H68">
-        <v>1051506412103407</v>
+        <v>1090802295279252</v>
       </c>
       <c r="I68">
-        <v>7597</v>
+        <v>4780</v>
       </c>
       <c r="J68">
-        <v>15071</v>
+        <v>18374</v>
       </c>
       <c r="K68">
-        <v>24298</v>
+        <v>19533</v>
       </c>
       <c r="L68">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M68">
-        <v>5771</v>
+        <v>6119</v>
       </c>
       <c r="N68">
-        <v>18527</v>
+        <v>13414</v>
       </c>
       <c r="O68">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P68">
-        <v>36624.94975332553</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>36896.12652087473</v>
+      </c>
+      <c r="Q68">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C69">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D69">
         <v>185</v>
       </c>
       <c r="E69">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F69">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G69">
-        <v>23841</v>
+        <v>24362</v>
       </c>
       <c r="H69">
-        <v>1051251200813358</v>
+        <v>1091361446810846</v>
       </c>
       <c r="I69">
-        <v>5676</v>
+        <v>4504</v>
       </c>
       <c r="J69">
-        <v>18165</v>
+        <v>19858</v>
       </c>
       <c r="K69">
-        <v>22419</v>
+        <v>17936</v>
       </c>
       <c r="L69">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="M69">
-        <v>5449</v>
+        <v>5597</v>
       </c>
       <c r="N69">
-        <v>16970</v>
+        <v>12339</v>
       </c>
       <c r="O69">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P69">
-        <v>37308.59537436726</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>37348.26990338079</v>
+      </c>
+      <c r="Q69">
+        <v>6426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C70">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D70">
         <v>185</v>
       </c>
       <c r="E70">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G70">
-        <v>23224</v>
+        <v>24240</v>
       </c>
       <c r="H70">
-        <v>1048742507627733</v>
+        <v>1144559146191284</v>
       </c>
       <c r="I70">
-        <v>5864</v>
+        <v>5075</v>
       </c>
       <c r="J70">
-        <v>17360</v>
+        <v>19165</v>
       </c>
       <c r="K70">
-        <v>19175</v>
+        <v>17107</v>
       </c>
       <c r="L70">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="M70">
-        <v>6136</v>
+        <v>4915</v>
       </c>
       <c r="N70">
-        <v>13039</v>
+        <v>12192</v>
       </c>
       <c r="O70">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P70">
-        <v>36842.91159099085</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>37785.11462872622</v>
+      </c>
+      <c r="Q70">
+        <v>7133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C71">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D71">
         <v>185</v>
       </c>
       <c r="E71">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F71">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G71">
-        <v>24552</v>
+        <v>24396</v>
       </c>
       <c r="H71">
-        <v>1051797496774199</v>
+        <v>1094087686588768</v>
       </c>
       <c r="I71">
-        <v>6769</v>
+        <v>5247</v>
       </c>
       <c r="J71">
-        <v>17783</v>
+        <v>19149</v>
       </c>
       <c r="K71">
-        <v>17731</v>
+        <v>21004</v>
       </c>
       <c r="L71">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M71">
-        <v>4992</v>
+        <v>5335</v>
       </c>
       <c r="N71">
-        <v>12739</v>
+        <v>15669</v>
       </c>
       <c r="O71">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P71">
-        <v>35905.51400052702</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>37682.68962488519</v>
+      </c>
+      <c r="Q71">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C72">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D72">
         <v>185</v>
       </c>
       <c r="E72">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F72">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G72">
-        <v>23170</v>
+        <v>24847</v>
       </c>
       <c r="H72">
-        <v>1048937980219109</v>
+        <v>1094094077822099</v>
       </c>
       <c r="I72">
-        <v>6520</v>
+        <v>5032</v>
       </c>
       <c r="J72">
-        <v>16650</v>
+        <v>19815</v>
       </c>
       <c r="K72">
-        <v>19937</v>
+        <v>19858</v>
       </c>
       <c r="L72">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="M72">
-        <v>4466</v>
+        <v>5838</v>
       </c>
       <c r="N72">
-        <v>15471</v>
+        <v>14020</v>
       </c>
       <c r="O72">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P72">
-        <v>36340.02795027621</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>35585.35402711695</v>
+      </c>
+      <c r="Q72">
+        <v>4989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C73">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D73">
         <v>185</v>
       </c>
       <c r="E73">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F73">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G73">
-        <v>22831</v>
+        <v>22474</v>
       </c>
       <c r="H73">
-        <v>1058831761323665</v>
+        <v>1091745986170120</v>
       </c>
       <c r="I73">
-        <v>5462</v>
+        <v>3651</v>
       </c>
       <c r="J73">
-        <v>17369</v>
+        <v>18823</v>
       </c>
       <c r="K73">
-        <v>22265</v>
+        <v>21125</v>
       </c>
       <c r="L73">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M73">
-        <v>4530</v>
+        <v>5169</v>
       </c>
       <c r="N73">
-        <v>17735</v>
+        <v>15956</v>
       </c>
       <c r="O73">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P73">
-        <v>36606.59665521061</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>38221.61951729571</v>
+      </c>
+      <c r="Q73">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C74">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D74">
         <v>185</v>
       </c>
       <c r="E74">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F74">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G74">
-        <v>24487</v>
+        <v>23397</v>
       </c>
       <c r="H74">
-        <v>1049392199936649</v>
+        <v>1098096375509401</v>
       </c>
       <c r="I74">
-        <v>7044</v>
+        <v>4107</v>
       </c>
       <c r="J74">
-        <v>17443</v>
+        <v>19290</v>
       </c>
       <c r="K74">
-        <v>20797</v>
+        <v>21442</v>
       </c>
       <c r="L74">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="M74">
-        <v>4538</v>
+        <v>4772</v>
       </c>
       <c r="N74">
-        <v>16259</v>
+        <v>16670</v>
       </c>
       <c r="O74">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P74">
-        <v>36178.53407626007</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>35924.46123446297</v>
+      </c>
+      <c r="Q74">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C75">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D75">
         <v>185</v>
       </c>
       <c r="E75">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F75">
         <v>126</v>
       </c>
       <c r="G75">
-        <v>24897</v>
+        <v>24149</v>
       </c>
       <c r="H75">
-        <v>1050178169337609</v>
+        <v>1094082557668923</v>
       </c>
       <c r="I75">
-        <v>5390</v>
+        <v>3860</v>
       </c>
       <c r="J75">
-        <v>19507</v>
+        <v>20289</v>
       </c>
       <c r="K75">
-        <v>17426</v>
+        <v>19204</v>
       </c>
       <c r="L75">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M75">
-        <v>3216</v>
+        <v>4948</v>
       </c>
       <c r="N75">
-        <v>14210</v>
+        <v>14256</v>
       </c>
       <c r="O75">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P75">
-        <v>34651.79310736974</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>37577.62173076769</v>
+      </c>
+      <c r="Q75">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C76">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D76">
         <v>185</v>
       </c>
       <c r="E76">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F76">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G76">
-        <v>24247</v>
+        <v>24624</v>
       </c>
       <c r="H76">
-        <v>1074083950801070</v>
+        <v>1094711946519292</v>
       </c>
       <c r="I76">
-        <v>5402</v>
+        <v>2701</v>
       </c>
       <c r="J76">
-        <v>18845</v>
+        <v>21923</v>
       </c>
       <c r="K76">
-        <v>21379</v>
+        <v>21813</v>
       </c>
       <c r="L76">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M76">
-        <v>4377</v>
+        <v>3660</v>
       </c>
       <c r="N76">
-        <v>17002</v>
+        <v>18153</v>
       </c>
       <c r="O76">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P76">
-        <v>37764.87730889682</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+        <v>36141.67891256786</v>
+      </c>
+      <c r="Q76">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C77">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D77">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="E77">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F77">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="G77">
-        <v>23833</v>
+        <v>25701</v>
       </c>
       <c r="H77">
-        <v>1051588107480558</v>
+        <v>1120392379670962</v>
       </c>
       <c r="I77">
-        <v>4914</v>
+        <v>3504</v>
       </c>
       <c r="J77">
-        <v>18919</v>
+        <v>22197</v>
       </c>
       <c r="K77">
-        <v>20301</v>
+        <v>24265</v>
       </c>
       <c r="L77">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="M77">
-        <v>3401</v>
+        <v>3817</v>
       </c>
       <c r="N77">
-        <v>16900</v>
+        <v>20448</v>
       </c>
       <c r="O77">
-        <v>35998.6336004162</v>
+        <v>30602.48196305806</v>
       </c>
       <c r="P77">
-        <v>37066.62732043781</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>36335.1613781351</v>
+      </c>
+      <c r="Q77">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C78">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D78">
         <v>185</v>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F78">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G78">
-        <v>23658</v>
+        <v>23538</v>
       </c>
       <c r="H78">
-        <v>1051085776574350</v>
+        <v>1118323387842640</v>
       </c>
       <c r="I78">
-        <v>4667</v>
+        <v>3543</v>
       </c>
       <c r="J78">
-        <v>18991</v>
+        <v>19995</v>
       </c>
       <c r="K78">
-        <v>19736</v>
+        <v>18809</v>
       </c>
       <c r="L78">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M78">
-        <v>3639</v>
+        <v>3673</v>
       </c>
       <c r="N78">
-        <v>16097</v>
+        <v>15136</v>
       </c>
       <c r="O78">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P78">
-        <v>35352.38860002448</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>38250.74049525143</v>
+      </c>
+      <c r="Q78">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C79">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D79">
         <v>185</v>
       </c>
       <c r="E79">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F79">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G79">
-        <v>25365</v>
+        <v>25566</v>
       </c>
       <c r="H79">
-        <v>1133100406645138</v>
+        <v>1254929519543802</v>
       </c>
       <c r="I79">
-        <v>5231</v>
+        <v>2958</v>
       </c>
       <c r="J79">
-        <v>20134</v>
+        <v>22608</v>
       </c>
       <c r="K79">
-        <v>20354</v>
+        <v>16785</v>
       </c>
       <c r="L79">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="M79">
-        <v>3941</v>
+        <v>2188</v>
       </c>
       <c r="N79">
-        <v>16413</v>
+        <v>14597</v>
       </c>
       <c r="O79">
-        <v>35998.6336004162</v>
+        <v>33302.79983878251</v>
       </c>
       <c r="P79">
-        <v>36582.67666308872</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+        <v>36717.45313673807</v>
+      </c>
+      <c r="Q79">
+        <v>8781</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C80">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D80">
         <v>185</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F80">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G80">
-        <v>23363</v>
+        <v>23433</v>
       </c>
       <c r="H80">
-        <v>1116746240485258</v>
+        <v>1120031282549079</v>
       </c>
       <c r="I80">
-        <v>4454</v>
+        <v>3184</v>
       </c>
       <c r="J80">
-        <v>18909</v>
+        <v>20249</v>
       </c>
       <c r="K80">
-        <v>21109</v>
+        <v>20153</v>
       </c>
       <c r="L80">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="M80">
-        <v>3823</v>
+        <v>2486</v>
       </c>
       <c r="N80">
-        <v>17286</v>
+        <v>17667</v>
       </c>
       <c r="O80">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P80">
-        <v>38259.65748898302</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+        <v>37334.95525034644</v>
+      </c>
+      <c r="Q80">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C81">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D81">
         <v>185</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F81">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="G81">
-        <v>21944</v>
+        <v>24991</v>
       </c>
       <c r="H81">
-        <v>1059556884071438</v>
+        <v>1102769300105754</v>
       </c>
       <c r="I81">
-        <v>4661</v>
+        <v>2943</v>
       </c>
       <c r="J81">
-        <v>17283</v>
+        <v>22048</v>
       </c>
       <c r="K81">
-        <v>20520</v>
+        <v>23557</v>
       </c>
       <c r="L81">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M81">
-        <v>2778</v>
+        <v>2996</v>
       </c>
       <c r="N81">
-        <v>17742</v>
+        <v>20561</v>
       </c>
       <c r="O81">
-        <v>35998.6336004162</v>
+        <v>34768.82245427527</v>
       </c>
       <c r="P81">
-        <v>36607.32091074655</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+        <v>35939.18092050633</v>
+      </c>
+      <c r="Q81">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C82">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D82">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E82">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F82">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="G82">
-        <v>21160</v>
+        <v>30198</v>
       </c>
       <c r="H82">
-        <v>1581764723937443</v>
+        <v>1155867037471720</v>
       </c>
       <c r="I82">
-        <v>4902</v>
+        <v>2699</v>
       </c>
       <c r="J82">
-        <v>16258</v>
+        <v>27499</v>
       </c>
       <c r="K82">
-        <v>21029</v>
+        <v>19762</v>
       </c>
       <c r="L82">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M82">
-        <v>2697</v>
+        <v>2941</v>
       </c>
       <c r="N82">
-        <v>18332</v>
+        <v>16821</v>
       </c>
       <c r="O82">
-        <v>38417.12499831078</v>
+        <v>35658.54007608327</v>
       </c>
       <c r="P82">
-        <v>36251.8068471859</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+        <v>36859.19933995206</v>
+      </c>
+      <c r="Q82">
+        <v>10436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C83">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D83">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E83">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F83">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="G83">
-        <v>22834</v>
+        <v>30674</v>
       </c>
       <c r="H83">
-        <v>2372422702937012</v>
+        <v>1176020342327248</v>
       </c>
       <c r="I83">
-        <v>4955</v>
+        <v>2706</v>
       </c>
       <c r="J83">
-        <v>17879</v>
+        <v>27968</v>
       </c>
       <c r="K83">
-        <v>20312</v>
+        <v>23810</v>
       </c>
       <c r="L83">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M83">
-        <v>3245</v>
+        <v>2969</v>
       </c>
       <c r="N83">
-        <v>17067</v>
+        <v>20841</v>
       </c>
       <c r="O83">
-        <v>35566.51529854174</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P83">
-        <v>38682.168557507</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+        <v>37918.8433626731</v>
+      </c>
+      <c r="Q83">
+        <v>6864</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C84">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D84">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E84">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F84">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="G84">
-        <v>20416</v>
+        <v>31289</v>
       </c>
       <c r="H84">
-        <v>2372400789068983</v>
+        <v>1274564633788233</v>
       </c>
       <c r="I84">
-        <v>3873</v>
+        <v>1966</v>
       </c>
       <c r="J84">
-        <v>16543</v>
+        <v>29323</v>
       </c>
       <c r="K84">
-        <v>18164</v>
+        <v>21606</v>
       </c>
       <c r="L84">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M84">
-        <v>2327</v>
+        <v>3076</v>
       </c>
       <c r="N84">
-        <v>15837</v>
+        <v>18530</v>
       </c>
       <c r="O84">
-        <v>33924.33277789405</v>
+        <v>36747.3146141895</v>
       </c>
       <c r="P84">
-        <v>33774.00537125237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+        <v>37556.95862330878</v>
+      </c>
+      <c r="Q84">
+        <v>9683</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C85">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D85">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E85">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F85">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="G85">
-        <v>22187</v>
+        <v>29012</v>
       </c>
       <c r="H85">
-        <v>1583247285019141</v>
+        <v>1174041824088808</v>
       </c>
       <c r="I85">
-        <v>4835</v>
+        <v>2405</v>
       </c>
       <c r="J85">
-        <v>17352</v>
+        <v>26607</v>
       </c>
       <c r="K85">
-        <v>22575</v>
+        <v>21074</v>
       </c>
       <c r="L85">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M85">
-        <v>2614</v>
+        <v>2555</v>
       </c>
       <c r="N85">
-        <v>19961</v>
+        <v>18519</v>
       </c>
       <c r="O85">
-        <v>38417.12499831078</v>
+        <v>36563.33249895837</v>
       </c>
       <c r="P85">
-        <v>36772.61188516569</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+        <v>37487.00304589687</v>
+      </c>
+      <c r="Q85">
+        <v>7938</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C86">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D86">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E86">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F86">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="G86">
-        <v>20530</v>
+        <v>30816</v>
       </c>
       <c r="H86">
-        <v>1581611441112723</v>
+        <v>1364952793425980</v>
       </c>
       <c r="I86">
-        <v>3210</v>
+        <v>1784</v>
       </c>
       <c r="J86">
-        <v>17320</v>
+        <v>29032</v>
       </c>
       <c r="K86">
-        <v>24546</v>
+        <v>17131</v>
       </c>
       <c r="L86">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M86">
-        <v>1990</v>
+        <v>1781</v>
       </c>
       <c r="N86">
-        <v>22556</v>
+        <v>15350</v>
       </c>
       <c r="O86">
-        <v>38652.48245189229</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P86">
-        <v>39790.53786971135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+        <v>36018.44326803593</v>
+      </c>
+      <c r="Q86">
+        <v>13685</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C87">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D87">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E87">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F87">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="G87">
-        <v>19814</v>
+        <v>30790</v>
       </c>
       <c r="H87">
-        <v>1581607814638616</v>
+        <v>1236148451933628</v>
       </c>
       <c r="I87">
-        <v>3134</v>
+        <v>2093</v>
       </c>
       <c r="J87">
-        <v>16680</v>
+        <v>28697</v>
       </c>
       <c r="K87">
-        <v>23236</v>
+        <v>21545</v>
       </c>
       <c r="L87">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M87">
-        <v>2113</v>
+        <v>1909</v>
       </c>
       <c r="N87">
-        <v>21123</v>
+        <v>19636</v>
       </c>
       <c r="O87">
-        <v>38652.48245189229</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P87">
-        <v>36034.26656707055</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+        <v>37853.63088372591</v>
+      </c>
+      <c r="Q87">
+        <v>9245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C88">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D88">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E88">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F88">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G88">
-        <v>22336</v>
+        <v>32154</v>
       </c>
       <c r="H88">
-        <v>3177705811785851</v>
+        <v>1399593598434754</v>
       </c>
       <c r="I88">
-        <v>3784</v>
+        <v>2968</v>
       </c>
       <c r="J88">
-        <v>18552</v>
+        <v>29186</v>
       </c>
       <c r="K88">
-        <v>20288</v>
+        <v>24758</v>
       </c>
       <c r="L88">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M88">
-        <v>2011</v>
+        <v>2496</v>
       </c>
       <c r="N88">
-        <v>18277</v>
+        <v>22262</v>
       </c>
       <c r="O88">
-        <v>29705.37894200381</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P88">
-        <v>36951.39157869912</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+        <v>36046.01173478867</v>
+      </c>
+      <c r="Q88">
+        <v>7396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C89">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D89">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E89">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F89">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="G89">
-        <v>19815</v>
+        <v>31943</v>
       </c>
       <c r="H89">
-        <v>1581610992132541</v>
+        <v>1508256777790527</v>
       </c>
       <c r="I89">
-        <v>2689</v>
+        <v>1516</v>
       </c>
       <c r="J89">
-        <v>17126</v>
+        <v>30427</v>
       </c>
       <c r="K89">
-        <v>20675</v>
+        <v>23204</v>
       </c>
       <c r="L89">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M89">
-        <v>2167</v>
+        <v>1900</v>
       </c>
       <c r="N89">
-        <v>18508</v>
+        <v>21304</v>
       </c>
       <c r="O89">
-        <v>38652.48245189229</v>
+        <v>35658.54007608327</v>
       </c>
       <c r="P89">
-        <v>38303.24343963277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+        <v>36632.34424833041</v>
+      </c>
+      <c r="Q89">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C90">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D90">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E90">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="G90">
-        <v>19648</v>
+        <v>30919</v>
       </c>
       <c r="H90">
-        <v>2372403477822574</v>
+        <v>1320914473960305</v>
       </c>
       <c r="I90">
-        <v>2311</v>
+        <v>1737</v>
       </c>
       <c r="J90">
-        <v>17337</v>
+        <v>29182</v>
       </c>
       <c r="K90">
-        <v>22990</v>
+        <v>21333</v>
       </c>
       <c r="L90">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="M90">
-        <v>2032</v>
+        <v>1899</v>
       </c>
       <c r="N90">
-        <v>20958</v>
+        <v>19434</v>
       </c>
       <c r="O90">
-        <v>33924.33277789405</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P90">
-        <v>37056.85810637624</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+        <v>36338.63850105162</v>
+      </c>
+      <c r="Q90">
+        <v>9586</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C91">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D91">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E91">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F91">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="G91">
-        <v>21410</v>
+        <v>31395</v>
       </c>
       <c r="H91">
-        <v>1581807539386298</v>
+        <v>1913165218979963</v>
       </c>
       <c r="I91">
-        <v>2664</v>
+        <v>1544</v>
       </c>
       <c r="J91">
-        <v>18746</v>
+        <v>29851</v>
       </c>
       <c r="K91">
-        <v>20904</v>
+        <v>21430</v>
       </c>
       <c r="L91">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M91">
-        <v>1456</v>
+        <v>2092</v>
       </c>
       <c r="N91">
-        <v>19448</v>
+        <v>19338</v>
       </c>
       <c r="O91">
-        <v>38652.48245189229</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P91">
-        <v>37338.03965625628</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+        <v>37694.14537770972</v>
+      </c>
+      <c r="Q91">
+        <v>9965</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C92">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D92">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E92">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F92">
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="G92">
-        <v>21502</v>
+        <v>31961</v>
       </c>
       <c r="H92">
-        <v>1582165145205058</v>
+        <v>1696934039532244</v>
       </c>
       <c r="I92">
-        <v>2030</v>
+        <v>982</v>
       </c>
       <c r="J92">
-        <v>19472</v>
+        <v>30979</v>
       </c>
       <c r="K92">
-        <v>24262</v>
+        <v>17273</v>
       </c>
       <c r="L92">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M92">
-        <v>1106</v>
+        <v>791</v>
       </c>
       <c r="N92">
-        <v>23156</v>
+        <v>16482</v>
       </c>
       <c r="O92">
-        <v>38652.48245189229</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P92">
-        <v>33626.70590427377</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+        <v>39084.24998671161</v>
+      </c>
+      <c r="Q92">
+        <v>14688</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C93">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D93">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E93">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F93">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="G93">
-        <v>18603</v>
+        <v>32109</v>
       </c>
       <c r="H93">
-        <v>1581598948452231</v>
+        <v>1405713124095333</v>
       </c>
       <c r="I93">
-        <v>1655</v>
+        <v>459</v>
       </c>
       <c r="J93">
-        <v>16948</v>
+        <v>31650</v>
       </c>
       <c r="K93">
-        <v>22558</v>
+        <v>18274</v>
       </c>
       <c r="L93">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M93">
-        <v>1386</v>
+        <v>924</v>
       </c>
       <c r="N93">
-        <v>21172</v>
+        <v>17350</v>
       </c>
       <c r="O93">
-        <v>38652.48245189229</v>
+        <v>33832.19737018023</v>
       </c>
       <c r="P93">
-        <v>38157.68103612117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+        <v>37831.99057606101</v>
+      </c>
+      <c r="Q93">
+        <v>13835</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C94">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D94">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E94">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F94">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="G94">
-        <v>22166</v>
+        <v>30719</v>
       </c>
       <c r="H94">
-        <v>1586995494697071</v>
+        <v>3492395500383693</v>
       </c>
       <c r="I94">
-        <v>2144</v>
+        <v>1268</v>
       </c>
       <c r="J94">
-        <v>20022</v>
+        <v>29451</v>
       </c>
       <c r="K94">
-        <v>26099</v>
+        <v>20075</v>
       </c>
       <c r="L94">
         <v>151</v>
       </c>
       <c r="M94">
-        <v>604</v>
+        <v>1242</v>
       </c>
       <c r="N94">
-        <v>25495</v>
+        <v>18833</v>
       </c>
       <c r="O94">
-        <v>38417.12499831078</v>
+        <v>36563.33249895837</v>
       </c>
       <c r="P94">
-        <v>37078.65012693405</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+        <v>37157.78633477858</v>
+      </c>
+      <c r="Q94">
+        <v>10644</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C95">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D95">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E95">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F95">
-        <v>102</v>
+        <v>181</v>
       </c>
       <c r="G95">
-        <v>19929</v>
+        <v>30468</v>
       </c>
       <c r="H95">
-        <v>1581599588463668</v>
+        <v>1972687897208514</v>
       </c>
       <c r="I95">
-        <v>1953</v>
+        <v>699</v>
       </c>
       <c r="J95">
-        <v>17976</v>
+        <v>29769</v>
       </c>
       <c r="K95">
-        <v>19438</v>
+        <v>17471</v>
       </c>
       <c r="L95">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M95">
-        <v>889</v>
+        <v>1225</v>
       </c>
       <c r="N95">
-        <v>18549</v>
+        <v>16246</v>
       </c>
       <c r="O95">
-        <v>38652.48245189229</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P95">
-        <v>37292.65808310904</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+        <v>37150.32890868853</v>
+      </c>
+      <c r="Q95">
+        <v>12997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C96">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D96">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F96">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="G96">
-        <v>19438</v>
+        <v>30738</v>
       </c>
       <c r="H96">
-        <v>1581602193085794</v>
+        <v>2720785862603885</v>
       </c>
       <c r="I96">
-        <v>802</v>
+        <v>536</v>
       </c>
       <c r="J96">
-        <v>18636</v>
+        <v>30202</v>
       </c>
       <c r="K96">
-        <v>19191</v>
+        <v>18613</v>
       </c>
       <c r="L96">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M96">
-        <v>343</v>
+        <v>726</v>
       </c>
       <c r="N96">
-        <v>18848</v>
+        <v>17887</v>
       </c>
       <c r="O96">
-        <v>38652.48245189229</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P96">
-        <v>35489.28513087358</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+        <v>35571.88930541598</v>
+      </c>
+      <c r="Q96">
+        <v>12125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C97">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D97">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="G97">
-        <v>21457</v>
+        <v>32566</v>
       </c>
       <c r="H97">
-        <v>1582050796992949</v>
+        <v>3470997042063792</v>
       </c>
       <c r="I97">
-        <v>1211</v>
+        <v>446</v>
       </c>
       <c r="J97">
-        <v>20246</v>
+        <v>32120</v>
       </c>
       <c r="K97">
-        <v>24946</v>
+        <v>23507</v>
       </c>
       <c r="L97">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="M97">
-        <v>926</v>
+        <v>462</v>
       </c>
       <c r="N97">
-        <v>24020</v>
+        <v>23045</v>
       </c>
       <c r="O97">
-        <v>38417.12499831078</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P97">
-        <v>35346.57639302701</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16">
+        <v>35691.84858931715</v>
+      </c>
+      <c r="Q97">
+        <v>9059</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C98">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D98">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F98">
-        <v>107</v>
+        <v>191</v>
       </c>
       <c r="G98">
-        <v>20244</v>
+        <v>32269</v>
       </c>
       <c r="H98">
-        <v>1585783983738796</v>
+        <v>2740576763630988</v>
       </c>
       <c r="I98">
-        <v>802</v>
+        <v>343</v>
       </c>
       <c r="J98">
-        <v>19442</v>
+        <v>31926</v>
       </c>
       <c r="K98">
-        <v>26527</v>
+        <v>20316</v>
       </c>
       <c r="L98">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="M98">
-        <v>947</v>
+        <v>594</v>
       </c>
       <c r="N98">
-        <v>25580</v>
+        <v>19722</v>
       </c>
       <c r="O98">
-        <v>38652.48245189229</v>
+        <v>35545.56154939783</v>
       </c>
       <c r="P98">
-        <v>37461.32903863704</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+        <v>36414.97310836119</v>
+      </c>
+      <c r="Q98">
+        <v>11953</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C99">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D99">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="G99">
-        <v>20834</v>
+        <v>25150</v>
       </c>
       <c r="H99">
-        <v>1582986859649159</v>
+        <v>6606969687732254</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>20834</v>
+        <v>25150</v>
       </c>
       <c r="K99">
-        <v>23923</v>
+        <v>21640</v>
       </c>
       <c r="L99">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="M99">
         <v>0</v>
       </c>
       <c r="N99">
-        <v>23923</v>
+        <v>21640</v>
       </c>
       <c r="O99">
-        <v>38417.12499831078</v>
+        <v>32020.35086794663</v>
       </c>
       <c r="P99">
-        <v>38069.58181166417</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16">
+        <v>36293.34463500015</v>
+      </c>
+      <c r="Q99">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="C100">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D100">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="G100">
-        <v>19798</v>
+        <v>26477</v>
       </c>
       <c r="H100">
-        <v>1581617944561539</v>
+        <v>7704949088638748</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>19798</v>
+        <v>26477</v>
       </c>
       <c r="K100">
-        <v>24114</v>
+        <v>25085</v>
       </c>
       <c r="L100">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M100">
         <v>0</v>
       </c>
       <c r="N100">
-        <v>24114</v>
+        <v>25085</v>
       </c>
       <c r="O100">
-        <v>38652.48245189229</v>
+        <v>30279.02613454039</v>
       </c>
       <c r="P100">
-        <v>37682.80341125681</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16">
+        <v>36835.44867193411</v>
+      </c>
+      <c r="Q100">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C101">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="D101">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="G101">
-        <v>20092</v>
+        <v>26580</v>
       </c>
       <c r="H101">
-        <v>1581628444996498</v>
+        <v>7704998145334153</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>20092</v>
+        <v>26580</v>
       </c>
       <c r="K101">
-        <v>19178</v>
+        <v>17574</v>
       </c>
       <c r="L101">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M101">
         <v>0</v>
       </c>
       <c r="N101">
-        <v>19178</v>
+        <v>17574</v>
       </c>
       <c r="O101">
-        <v>38417.12499831078</v>
+        <v>30279.02613454039</v>
       </c>
       <c r="P101">
-        <v>38517.26226994421</v>
+        <v>35610.88790471191</v>
+      </c>
+      <c r="Q101">
+        <v>9006</v>
       </c>
     </row>
   </sheetData>
